--- a/Data/UpgradeData.xlsx
+++ b/Data/UpgradeData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633CA674-B961-46DD-9495-2C0D67265B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0175D-227D-40B1-AFE6-AE55E230C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="3690" windowWidth="22005" windowHeight="11295" xr2:uid="{31876BD7-5BDB-447B-9874-1151AD2B006F}"/>
   </bookViews>
@@ -250,6 +250,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -257,9 +260,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +579,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -590,17 +590,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -634,7 +634,7 @@
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -644,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Data/UpgradeData.xlsx
+++ b/Data/UpgradeData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA0175D-227D-40B1-AFE6-AE55E230C501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71996439-AF2C-463E-85BE-10287F1572B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="3690" windowWidth="22005" windowHeight="11295" xr2:uid="{31876BD7-5BDB-447B-9874-1151AD2B006F}"/>
+    <workbookView xWindow="1125" yWindow="2550" windowWidth="22020" windowHeight="11295" xr2:uid="{31876BD7-5BDB-447B-9874-1151AD2B006F}"/>
   </bookViews>
   <sheets>
     <sheet name="Upgrade" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,66 @@
   </si>
   <si>
     <t>Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Number Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요한 자원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">자원 수량 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron
+Copper
+Uranium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Emerald
+Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron
+Copper
+Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron
+Copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100
+100
+5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30
+30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20
+20
+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20
+20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +320,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,20 +639,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C131120C-2C2B-48CC-BFBA-F8DE4985BC3B}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
@@ -602,10 +665,10 @@
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="26.25" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>COUNTA(B3:B20)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -634,9 +697,14 @@
       <c r="J2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -664,8 +732,14 @@
       <c r="J3">
         <v>1</v>
       </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -693,8 +767,14 @@
       <c r="J4">
         <v>1</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -702,7 +782,7 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -721,6 +801,47 @@
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>0.5</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
